--- a/报告模板设计/持有转售/我的测算表格.xlsx
+++ b/报告模板设计/持有转售/我的测算表格.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="14805" windowHeight="7800" tabRatio="865"/>
+    <workbookView xWindow="240" yWindow="320" windowWidth="14810" windowHeight="7800" tabRatio="865" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="持有转售" sheetId="22" r:id="rId1"/>
-    <sheet name="净值计算支持表" sheetId="9" r:id="rId2"/>
+    <sheet name="Chart2" sheetId="24" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="23" r:id="rId2"/>
+    <sheet name="持有转售" sheetId="22" r:id="rId3"/>
+    <sheet name="净值计算支持表" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -79,10 +81,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="169">
   <si>
-    <t>印花税</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>土地增值税</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,9 +514,6 @@
   <si>
     <t>租赁增值税征收率</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝向</t>
   </si>
   <si>
     <t>建筑结构</t>
@@ -593,9 +588,6 @@
     <t>南北不通透的朝西套</t>
   </si>
   <si>
-    <t>层次/总层数</t>
-  </si>
-  <si>
     <t>第9层/19层（含地下1层）</t>
   </si>
   <si>
@@ -605,12 +597,6 @@
     <t>第16层/19层（含地下1层）</t>
   </si>
   <si>
-    <t>室内装修</t>
-  </si>
-  <si>
-    <t>室内设备</t>
-  </si>
-  <si>
     <t>齐全</t>
   </si>
   <si>
@@ -620,19 +606,11 @@
     <t>2002年</t>
   </si>
   <si>
-    <t>空间布局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>钢混结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规模</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -752,6 +730,34 @@
   </si>
   <si>
     <t>年收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层次/总层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内装修</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1621,72 +1627,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFFFFF66"/>
     </mruColors>
@@ -1699,6 +1639,5510 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$G$1:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$H$1:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0_ ">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_ ">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$I$1:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00_ ">
+                  <c:v>134.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00_ ">
+                  <c:v>3051.3093749999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$J$1:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>30189</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0_ ">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_ ">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$K$1:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00_ ">
+                  <c:v>129.63</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$L$1:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="5" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0_ ">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_ ">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$M$1:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00_ ">
+                  <c:v>133.24</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$N$1:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="5" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0_ ">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_ ">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="201022464"/>
+        <c:axId val="201032448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="201022464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="201032448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="201032448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="201022464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$G$1:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$H$1:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0_ ">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_ ">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$I$1:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00_ ">
+                  <c:v>134.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00_ ">
+                  <c:v>3051.3093749999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$J$1:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>30189</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0_ ">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_ ">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$K$1:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00_ ">
+                  <c:v>129.63</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$L$1:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="5" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0_ ">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_ ">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$M$1:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00_ ">
+                  <c:v>133.24</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>持有转售!$A$1:$F$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>备    注</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金*12*（1-空置率）</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>（一）÷（1+5%）×增值税率×（1+附加税率）</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>重置价×保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1200～1500</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>年有效毛收入(含税）×管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>重置价格×维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（一）+（二）-（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A/Y*[1-1/(1+Y)^t]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售价格-转售成本</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>V*(1+b)^t</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>V=A/Y*[1-1/(1+Y)^t]+期末转售收益/(1+Y)^t</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>265</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.20%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5 </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.00%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>23118.3 </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>349.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>参数名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>月租金</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>空置率</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>一年存款利率</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>租赁增值税征收率</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>附加税率</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税率</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>保险费率</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>重置价</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>管理费率</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修费率</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期t</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>报酬率(Y)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>未来价格每年上涨率b</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>期末转售价格</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>转售成本</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>单价</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3047.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.81 </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>199.15 </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00 </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>116.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.60 </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>60.95 </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>19.50 </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2852.16 </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12348.36 </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>22769 </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>20939</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>30189.0 </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>项目名称</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>年有效毛收入</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>其他收入</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>年运营费用</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>增值税及附加</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>房产税</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>房屋保险费</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>物业服务及管理费</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>维修及水电费</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>年净收益（A）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>持有期收益</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>期末转售收益Vt(元/平方米)</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>（比较法计算结果）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>收益价值V</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>红色部分允许修改，但只有绿底部分是经常需要修改，因为是持有5年以上再转售，“是否满2年”一般固定选“是”</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>序号</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>（一）</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>（二）</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>（三）</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>①</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>②</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>③</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>④</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>（四）</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>（五）</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>（六）</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>（七）</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持有转售!$N$1:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="5" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0_ ">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_ ">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0_ ">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_ ">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_ ">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="201521408"/>
+        <c:axId val="201539584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="201521408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="201539584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="201539584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="201521408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9290137" cy="6071644"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9290137" cy="6071644"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1707,7 +7151,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1988,33 +7432,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.453125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.453125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -2029,9 +7473,9 @@
         <v>30189</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G2" s="106" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H2" s="107"/>
       <c r="I2" s="107"/>
@@ -2041,88 +7485,88 @@
       <c r="M2" s="107"/>
       <c r="N2" s="108"/>
     </row>
-    <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="G3" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="74" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I3" s="74" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J3" s="74"/>
       <c r="K3" s="74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L3" s="74"/>
       <c r="M3" s="74" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N3" s="75"/>
     </row>
-    <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>56</v>
       </c>
       <c r="C4" s="13">
         <f>ROUND(E4*12*(1-F5),2)</f>
         <v>3047.5</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E4" s="87">
         <f>ROUND((I16+K16+M16)/3,0)</f>
         <v>265</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="73"/>
       <c r="H4" s="76" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I4" s="90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J4" s="74"/>
       <c r="K4" s="90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L4" s="74"/>
       <c r="M4" s="90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N4" s="75"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="62"/>
       <c r="C5" s="13"/>
       <c r="D5" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="88">
         <v>0.5</v>
@@ -2132,7 +7576,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H5" s="74"/>
       <c r="I5" s="91">
@@ -2148,28 +7592,28 @@
       </c>
       <c r="N5" s="75"/>
     </row>
-    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="13">
         <f>E4*E6*(1-F5)</f>
         <v>3.8093749999999997</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="49">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H6" s="90" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I6" s="76" t="str">
         <f>H6</f>
@@ -2193,12 +7637,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="13">
         <f>ROUND(C8+C11+C14+C13+C10,2)</f>
@@ -2208,176 +7652,176 @@
       <c r="E7" s="64"/>
       <c r="F7" s="63"/>
       <c r="G7" s="73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H7" s="76" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I7" s="76" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J7" s="76">
         <v>0</v>
       </c>
       <c r="K7" s="76" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L7" s="76">
         <v>0</v>
       </c>
       <c r="M7" s="76" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="N7" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C8" s="13">
         <f>ROUND(C4/(1+0.05)*E8*(1+E9),2)</f>
         <v>0</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="86">
         <f>IF(B28="个人",IF(B31,0,IF(B26="住宅",0.015,0.05)),IF(B28="一般纳税人",0.05,0.05))</f>
         <v>0</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>114</v>
+        <v>142</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>163</v>
       </c>
       <c r="H8" s="90" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J8" s="90">
         <v>2</v>
       </c>
       <c r="K8" s="90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L8" s="90">
         <v>2</v>
       </c>
       <c r="M8" s="90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N8" s="92">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="65"/>
       <c r="C9" s="65"/>
       <c r="D9" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="38">
         <f>D26</f>
         <v>0.12</v>
       </c>
       <c r="F9" s="63"/>
-      <c r="G9" s="73" t="s">
-        <v>135</v>
+      <c r="G9" s="76" t="s">
+        <v>166</v>
       </c>
       <c r="H9" s="90" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I9" s="76" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J9" s="76">
         <v>0</v>
       </c>
       <c r="K9" s="76" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="L9" s="76">
         <v>0</v>
       </c>
       <c r="M9" s="76" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N9" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
       <c r="B10" s="62" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C10" s="63">
         <f>ROUND(E10*(C4)/(1+0.05),2)</f>
         <v>116.1</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="38">
         <f>IF(B26="住宅",0.04,IF(B28="个人",0.04,0.12))</f>
         <v>0.04</v>
       </c>
-      <c r="G10" s="73" t="s">
-        <v>126</v>
+      <c r="G10" s="76" t="s">
+        <v>164</v>
       </c>
       <c r="H10" s="90" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J10" s="90">
         <v>2</v>
       </c>
       <c r="K10" s="90" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L10" s="90">
         <v>3</v>
       </c>
       <c r="M10" s="90" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N10" s="92">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="13">
         <f>E12*E11</f>
         <v>2.6</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="49">
         <v>2E-3</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="73" t="s">
-        <v>138</v>
+        <v>95</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>167</v>
       </c>
       <c r="H11" s="90">
         <v>73</v>
@@ -2401,12 +7845,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="66"/>
       <c r="B12" s="65"/>
       <c r="C12" s="65"/>
       <c r="D12" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="88">
         <v>1300</v>
@@ -2415,127 +7859,127 @@
         <f>(E12-100)&amp;"～"&amp;(E12+200)</f>
         <v>1200～1500</v>
       </c>
-      <c r="G12" s="73" t="s">
-        <v>130</v>
+      <c r="G12" s="76" t="s">
+        <v>168</v>
       </c>
       <c r="H12" s="76" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I12" s="90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J12" s="90">
         <v>2</v>
       </c>
       <c r="K12" s="90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L12" s="90">
         <v>2</v>
       </c>
       <c r="M12" s="90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N12" s="92">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="13">
         <f>C4*E13</f>
         <v>60.95</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="49">
         <v>0.02</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="73" t="s">
-        <v>131</v>
+        <v>99</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>165</v>
       </c>
       <c r="H13" s="76" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I13" s="76" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J13" s="76">
         <v>2</v>
       </c>
       <c r="K13" s="76" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L13" s="76">
         <v>2</v>
       </c>
       <c r="M13" s="76" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N13" s="77">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="13">
         <f>E12*E14</f>
         <v>19.5</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="49">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="73" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H14" s="90">
         <v>1992</v>
       </c>
       <c r="I14" s="90" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J14" s="90">
         <v>4</v>
       </c>
       <c r="K14" s="90" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L14" s="90">
         <v>4</v>
       </c>
       <c r="M14" s="90" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N14" s="92">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="13">
         <f>C4-C7+C6</f>
@@ -2544,10 +7988,10 @@
       <c r="D15" s="62"/>
       <c r="E15" s="64"/>
       <c r="F15" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H15" s="74"/>
       <c r="I15" s="79">
@@ -2575,28 +8019,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="13">
         <f>ROUND(C15/E17*(1-1/(1+E17)^E16),2)</f>
         <v>12348.36</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="50">
         <v>5</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" s="81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="82">
@@ -2615,12 +8059,12 @@
       </c>
       <c r="N16" s="83"/>
     </row>
-    <row r="17" spans="1:14" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="66"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
       <c r="D17" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="38">
         <f>G41</f>
@@ -2636,29 +8080,29 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="16">
         <f>E19-E20</f>
         <v>22769.347938204799</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="49">
         <v>0.02</v>
       </c>
       <c r="F18" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I18" s="84">
         <f>C4+C6</f>
@@ -2670,23 +8114,23 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="62" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C19" s="102">
         <v>20939</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="15">
         <f>C19*(1+E18)^E16</f>
         <v>23118.347938204799</v>
       </c>
       <c r="F19" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -2697,12 +8141,12 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
       <c r="B20" s="65"/>
       <c r="C20" s="65"/>
       <c r="D20" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="15">
         <f>E31</f>
@@ -2718,12 +8162,12 @@
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="27.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="22">
         <f>ROUND(C16+C18/(1+E17)^E16,0)</f>
@@ -2732,7 +8176,7 @@
       <c r="D21" s="70"/>
       <c r="E21" s="71"/>
       <c r="F21" s="72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -2743,42 +8187,42 @@
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:14" ht="27.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B24" s="94">
         <v>30000</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="K24" s="60"/>
       <c r="L24" s="61"/>
       <c r="M24" s="60"/>
       <c r="N24" s="60"/>
     </row>
-    <row r="25" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="28" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B25" s="95">
         <f>H11</f>
         <v>73</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="8">
         <f>IF(B28="个人",IF(B26="住宅",IF(B27="是",0,0.05),0.05),0.05)</f>
@@ -2797,15 +8241,15 @@
       <c r="M25" s="60"/>
       <c r="N25" s="60"/>
     </row>
-    <row r="26" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="8">
         <f>IF(B29="市区",0.12,IF(B29="县镇",0.1,0.06))</f>
@@ -2824,15 +8268,15 @@
       <c r="M26" s="60"/>
       <c r="N26" s="60"/>
     </row>
-    <row r="27" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="28" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="11">
         <f>IF(B28="个人",0.015,0)</f>
@@ -2851,15 +8295,15 @@
       <c r="M27" s="60"/>
       <c r="N27" s="60"/>
     </row>
-    <row r="28" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="28" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D28" s="12">
         <f>IF(B28="个人",IF(B26="住宅",0,0.0005),0.0005)</f>
@@ -2878,15 +8322,15 @@
       <c r="M28" s="60"/>
       <c r="N28" s="60"/>
     </row>
-    <row r="29" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="28" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="8">
         <f>IF(B28="个人",IF(B26="住宅",0,0.05),0.05)</f>
@@ -2905,16 +8349,16 @@
       <c r="M29" s="60"/>
       <c r="N29" s="60"/>
     </row>
-    <row r="30" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B30" s="98">
         <f>IF(B28="一般纳税人",0.11,0.05)</f>
         <v>0.05</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="48">
         <f>VLOOKUP(B26,净值计算支持表!H6:I11,2,0)/2</f>
@@ -2931,16 +8375,16 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="27.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="93" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B31" s="94" t="b">
         <f>E4*B25&lt;=B24</f>
         <v>1</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="27">
@@ -2950,114 +8394,114 @@
       <c r="F31" s="24"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="3:8" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="3:8" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39"/>
       <c r="E33" s="103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" s="103"/>
       <c r="G33" s="103"/>
     </row>
-    <row r="34" spans="3:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:8" ht="28" x14ac:dyDescent="0.25">
       <c r="E34" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="G34" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="31" t="s">
-        <v>83</v>
-      </c>
     </row>
-    <row r="35" spans="3:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E35" s="29">
         <v>1</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G35" s="33">
         <f>E6</f>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E36" s="29">
         <v>2</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="89">
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E37" s="29">
         <v>3</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" s="89">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E38" s="29">
         <v>4</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38" s="89">
         <v>0.02</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E39" s="29">
         <v>5</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" s="89">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E40" s="29">
         <v>6</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G40" s="89">
         <v>-7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="41" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E41" s="34">
         <v>7</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" s="36">
         <f>SUM(G35:G40)</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="3:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:8" ht="14.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F43" s="85" t="str">
         <f>"根据国家税务总局有关规定，"&amp;B28&amp;"出租"&amp;B26&amp;IF(E8=0,"月租金收入不超过3万元的免征增值税,故","")&amp;"增值税征收率为"&amp;E8*100&amp;"%，城建税、教育费附加、地方教育附加为增值税的"&amp;E9*100&amp;"%。增值税及附加 = "&amp;C4&amp;"/(1+5%)×"&amp;E8*100&amp;"%×(1+"&amp;E9*100&amp;"%)"</f>
         <v>根据国家税务总局有关规定，个人出租住宅月租金收入不超过3万元的免征增值税,故增值税征收率为0%，城建税、教育费附加、地方教育附加为增值税的12%。增值税及附加 = 3047.5/(1+5%)×0%×(1+12%)</v>
       </c>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H44" s="28"/>
     </row>
   </sheetData>
@@ -3110,71 +8554,71 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.625" customWidth="1"/>
-    <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="70.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="70.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="51"/>
       <c r="B5" s="109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="109"/>
       <c r="D5" s="109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="110"/>
     </row>
-    <row r="6" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="42">
         <v>4</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="53">
         <v>0</v>
@@ -3189,19 +8633,19 @@
         <v>0.05</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3">
         <v>20</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
       <c r="B8" s="53">
         <v>0.05</v>
@@ -3216,21 +8660,21 @@
         <v>0.05</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="3">
         <v>12</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="53">
         <v>0.12</v>
@@ -3245,21 +8689,21 @@
         <v>0.12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="3">
         <v>7</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="53">
         <v>1.4999999999999999E-2</v>
@@ -3274,24 +8718,24 @@
         <v>0.03</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="3">
         <v>14</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="53">
         <v>0</v>
@@ -3306,21 +8750,21 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="46">
         <v>4</v>
       </c>
       <c r="J11" s="47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="28.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="53">
         <v>0</v>
@@ -3335,24 +8779,24 @@
         <v>0.05</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="55">
         <v>2.5000000000000001E-2</v>
@@ -3367,55 +8811,55 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="G15" s="1" t="s">
-        <v>42</v>
+    <row r="17" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G16" s="1" t="s">
-        <v>25</v>
+    <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="G17" s="1" t="s">
-        <v>26</v>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="G18" s="1" t="s">
-        <v>48</v>
+    <row r="20" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>29</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>30</v>
       </c>
       <c r="G21" s="1" t="str">
         <f>CONCATENATE("交易手续费按建筑面积计取，存量",持有转售!B26,"交易手续费每平方米",持有转售!D30*2,"元，双方各承担50%")</f>
         <v>交易手续费按建筑面积计取，存量住宅交易手续费每平方米4元，双方各承担50%</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1" t="e">
         <f>CONCATENATE("根据市场行情的调查，处置费用按交易总额(增值税不含税收入)的",#REF!*100,"%计算")</f>
         <v>#REF!</v>
